--- a/templates/TEMPLATE-ORCAMENTEO.xlsx
+++ b/templates/TEMPLATE-ORCAMENTEO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3G\Desktop\orcamento_backend\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3G\Desktop\TESTE ORCA\orcamento_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD075E59-EA53-4E38-BAA8-4C833BD990AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC23AA8-2A7C-44E5-BA7F-9D4DDB6F9146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,8 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -189,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,9 +202,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -550,7 +546,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +563,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -607,7 +603,7 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -627,15 +623,15 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="11"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
@@ -644,7 +640,7 @@
       <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
@@ -652,34 +648,34 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">

--- a/templates/TEMPLATE-ORCAMENTEO.xlsx
+++ b/templates/TEMPLATE-ORCAMENTEO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3G\Desktop\TESTE ORCA\orcamento_backend\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3G\Desktop\ORCAPRIME\orcamento_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC23AA8-2A7C-44E5-BA7F-9D4DDB6F9146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F8E134-00BD-45EE-867A-67EE5A5D76C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="1890" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,15 +62,9 @@
     <t>CNPJ / CPF:</t>
   </si>
   <si>
-    <t>VALOR UNID</t>
-  </si>
-  <si>
     <t>QTD</t>
   </si>
   <si>
-    <t>VALOR TOTAL</t>
-  </si>
-  <si>
     <t>Observações</t>
   </si>
   <si>
@@ -111,6 +105,12 @@
   </si>
   <si>
     <t>Condições:</t>
+  </si>
+  <si>
+    <t>V.UNID</t>
+  </si>
+  <si>
+    <t>V.TOTAL</t>
   </si>
 </sst>
 </file>
@@ -120,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,14 +143,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -183,12 +175,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,7 +200,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -218,9 +217,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -240,10 +244,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1631042" cy="518013"/>
     <xdr:pic>
@@ -267,7 +271,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="28575"/>
+          <a:off x="5448300" y="142875"/>
           <a:ext cx="1631042" cy="518013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -546,24 +550,24 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -589,114 +593,119 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/templates/TEMPLATE-ORCAMENTEO.xlsx
+++ b/templates/TEMPLATE-ORCAMENTEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3G\Desktop\ORCAPRIME\orcamento_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F8E134-00BD-45EE-867A-67EE5A5D76C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A4D38A-5498-4272-8CD3-15E9A8EF6BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30015" yWindow="2970" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,6 +129,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,8 +137,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -190,38 +190,36 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -245,9 +243,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1631042" cy="518013"/>
     <xdr:pic>
@@ -271,7 +269,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5448300" y="142875"/>
+          <a:off x="4838700" y="114300"/>
           <a:ext cx="1631042" cy="518013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -547,157 +545,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="3" t="s">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -708,6 +789,7 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/TEMPLATE-ORCAMENTEO.xlsx
+++ b/templates/TEMPLATE-ORCAMENTEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3G\Desktop\ORCAPRIME\orcamento_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A4D38A-5498-4272-8CD3-15E9A8EF6BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281AD9A6-7B26-4002-9979-05AFFE7C6705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30015" yWindow="2970" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,16 +120,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -142,6 +134,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,39 +199,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,19 +574,19 @@
     <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -581,7 +597,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -592,7 +608,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -603,7 +619,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -614,7 +630,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -622,12 +638,12 @@
         <v>5</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="3"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -635,99 +651,99 @@
         <v>6</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="3"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -738,7 +754,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -749,7 +765,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -760,7 +776,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -769,16 +785,24 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -789,7 +813,7 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>